--- a/scrapers/scraped-data/Norgesmesterskap ILCA e Optimist 2023_ilca 7.xlsx
+++ b/scrapers/scraped-data/Norgesmesterskap ILCA e Optimist 2023_ilca 7.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -7751,7 +7751,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -9617,7 +9617,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
